--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_7_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2655713.583277099</v>
+        <v>2654986.984405874</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330302</v>
+        <v>5851605.6153303</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124467</v>
+        <v>864456.6793124474</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6919710.006564455</v>
+        <v>6919710.006564454</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>348.9144013186258</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>1.441771996885163</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>137.9583128080196</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>107.8702810193205</v>
@@ -794,10 +794,10 @@
         <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33883039991039</v>
+        <v>195.3773027531635</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W3" t="n">
         <v>211.1008365810345</v>
@@ -822,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>70.90884974000116</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>29.06736062834965</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>390.550599122546</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
@@ -961,10 +961,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>101.6302174766832</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028016</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>71.31157381942172</v>
+        <v>136.1769805884545</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>345.8958336801322</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>193.4795097704822</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1296,13 +1296,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>28.77201408958031</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>175.4647255438872</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019353</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
         <v>387.3211661995113</v>
@@ -1387,10 +1387,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275031</v>
       </c>
       <c r="T11" t="n">
         <v>190.4854774862717</v>
@@ -1435,7 +1435,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y11" t="n">
         <v>367.4283645950528</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C13" t="n">
-        <v>44.65330832841697</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>133.4858729041766</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037907</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>155.0289087125508</v>
@@ -1590,10 +1590,10 @@
         <v>241.6479458835352</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198763</v>
+        <v>110.7413380394608</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C14" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
         <v>387.3211661995113</v>
@@ -1624,10 +1624,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332976064</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275031</v>
       </c>
       <c r="T14" t="n">
         <v>190.4854774862717</v>
@@ -1672,7 +1672,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X14" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y14" t="n">
         <v>367.4283645950528</v>
@@ -1767,25 +1767,25 @@
         <v>156.3237676037659</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>71.8498873761834</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F16" t="n">
-        <v>75.60603984991907</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H16" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501631</v>
+        <v>54.92104941501634</v>
       </c>
       <c r="S16" t="n">
         <v>155.0289087125508</v>
@@ -1821,19 +1821,19 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U16" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X16" t="n">
         <v>206.4614817925754</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C17" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D17" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E17" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
         <v>387.3211661995113</v>
@@ -1861,10 +1861,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X17" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y17" t="n">
         <v>367.4283645950528</v>
@@ -2004,22 +2004,22 @@
         <v>156.3237676037659</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D19" t="n">
-        <v>96.3087310014409</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>65.24373931282253</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501631</v>
+        <v>54.92104941501634</v>
       </c>
       <c r="S19" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T19" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>241.6479458835352</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>246.7800261198763</v>
@@ -2070,7 +2070,7 @@
         <v>206.4614817925754</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C20" t="n">
-        <v>376.5244030535258</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D20" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E20" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F20" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995121</v>
       </c>
       <c r="G20" t="n">
         <v>375.1420595397581</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X20" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y20" t="n">
         <v>367.4283645950528</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>126.2210835114348</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>2.35950206131855</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>155.0289087125508</v>
@@ -2304,7 +2304,7 @@
         <v>246.7800261198763</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y22" t="n">
         <v>192.9893998987849</v>
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C23" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D23" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E23" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F23" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G23" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722222</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975963</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T23" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862719</v>
       </c>
       <c r="U23" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V23" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W23" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X23" t="n">
-        <v>367.1380221263989</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y23" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875626</v>
+        <v>64.48663283233695</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037907</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501631</v>
+        <v>54.92104941501643</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T25" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W25" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>14.01643745131542</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>380.6978716019343</v>
       </c>
       <c r="F26" t="n">
-        <v>387.3211661995107</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G26" t="n">
         <v>375.1420595397582</v>
@@ -2575,7 +2575,7 @@
         <v>278.3004706722213</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975962</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T26" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862714</v>
       </c>
       <c r="U26" t="n">
         <v>224.9909450967471</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>55.50865661962743</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
         <v>129.8027652540258</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.68364371037916</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501641</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>207.654309906727</v>
@@ -2775,7 +2775,7 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
-        <v>166.5396278387343</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
         <v>206.4614817925755</v>
@@ -2812,7 +2812,7 @@
         <v>278.3004706722213</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975964</v>
+        <v>55.98930332975884</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>49.56236697288362</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>102.4673613588521</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.68364371037916</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501641</v>
+        <v>54.9210494150164</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125509</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>207.654309906727</v>
@@ -3189,7 +3189,7 @@
         <v>156.323767603766</v>
       </c>
       <c r="C34" t="n">
-        <v>33.12209635668106</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2.359502061318297</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>155.0289087125508</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C35" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D35" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E35" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F35" t="n">
         <v>387.3211661995113</v>
@@ -3283,10 +3283,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H35" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722212</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975954</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T35" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U35" t="n">
         <v>224.990945096747</v>
@@ -3331,7 +3331,7 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X35" t="n">
-        <v>367.1380221263989</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y35" t="n">
         <v>367.4283645950528</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>61.04510745646664</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>89.08027825565931</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501631</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W37" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925754</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y37" t="n">
         <v>192.9893998987849</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>376.6200261415078</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C38" t="n">
         <v>376.5244030535245</v>
@@ -3559,7 +3559,7 @@
         <v>190.4854774862717</v>
       </c>
       <c r="U38" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V38" t="n">
         <v>316.8402373905461</v>
@@ -3663,7 +3663,7 @@
         <v>156.3237676037659</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>33.12209635668191</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
-        <v>216.6854325105169</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V40" t="n">
         <v>241.6479458835352</v>
@@ -3726,7 +3726,7 @@
         <v>246.7800261198763</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y40" t="n">
         <v>192.9893998987849</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678444</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798624</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.4192906078699</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282721</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258492</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>404.641001266096</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985591</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609747</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>174.137257170278</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.4898868230849</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.339179116884</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>379.922697856183</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213907</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>2.127201442763817</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>227.0672929610291</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>373.8316553010479</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798624</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.4192906078699</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258492</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>404.641001266096</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985591</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609747</v>
+        <v>39.93142548241837</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126097</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.4898868230849</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.339179116884</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>379.922697856183</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>396.6369638527369</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>58.89272194930122</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>223.4899753452292</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>563.0439654718656</v>
+        <v>1222.871584597377</v>
       </c>
       <c r="C2" t="n">
-        <v>556.9597788255397</v>
+        <v>812.7469939106467</v>
       </c>
       <c r="D2" t="n">
-        <v>556.5362529590043</v>
+        <v>408.2830640037072</v>
       </c>
       <c r="E2" t="n">
-        <v>546.236441516305</v>
+        <v>55.844274792974</v>
       </c>
       <c r="F2" t="n">
-        <v>529.2464335103966</v>
+        <v>38.85426678706561</v>
       </c>
       <c r="G2" t="n">
-        <v>120.5181494032287</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="H2" t="n">
-        <v>120.5181494032287</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="I2" t="n">
-        <v>34.1663867203019</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="J2" t="n">
-        <v>34.1663867203019</v>
+        <v>288.3518581880562</v>
       </c>
       <c r="K2" t="n">
-        <v>78.17457653903</v>
+        <v>711.1608938517917</v>
       </c>
       <c r="L2" t="n">
-        <v>78.17457653903</v>
+        <v>1133.969929515527</v>
       </c>
       <c r="M2" t="n">
-        <v>78.17457653903</v>
+        <v>1556.778965179263</v>
       </c>
       <c r="N2" t="n">
-        <v>500.983612202766</v>
+        <v>1667.762690325528</v>
       </c>
       <c r="O2" t="n">
-        <v>923.792647866502</v>
+        <v>1667.762690325528</v>
       </c>
       <c r="P2" t="n">
-        <v>1346.601683530238</v>
+        <v>1667.762690325528</v>
       </c>
       <c r="Q2" t="n">
-        <v>1667.76269032553</v>
+        <v>1667.762690325528</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015095</v>
+        <v>1708.319336015093</v>
       </c>
       <c r="S2" t="n">
-        <v>1708.319336015095</v>
+        <v>1708.319336015093</v>
       </c>
       <c r="T2" t="n">
-        <v>1708.319336015095</v>
+        <v>1486.112851961952</v>
       </c>
       <c r="U2" t="n">
-        <v>1706.863000664706</v>
+        <v>1229.052360221462</v>
       </c>
       <c r="V2" t="n">
-        <v>1357.025446001187</v>
+        <v>1229.052360221462</v>
       </c>
       <c r="W2" t="n">
-        <v>973.265145136355</v>
+        <v>1229.052360221462</v>
       </c>
       <c r="X2" t="n">
-        <v>973.265145136355</v>
+        <v>1229.052360221462</v>
       </c>
       <c r="Y2" t="n">
-        <v>973.265145136355</v>
+        <v>1229.052360221462</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>712.9972286068362</v>
+        <v>341.6121835675024</v>
       </c>
       <c r="C3" t="n">
-        <v>579.0021573557819</v>
+        <v>341.6121835675024</v>
       </c>
       <c r="D3" t="n">
-        <v>462.1049995751744</v>
+        <v>341.6121835675024</v>
       </c>
       <c r="E3" t="n">
         <v>341.6121835675024</v>
       </c>
       <c r="F3" t="n">
-        <v>232.652303750007</v>
+        <v>232.6523037500069</v>
       </c>
       <c r="G3" t="n">
-        <v>125.6621910643457</v>
+        <v>125.6621910643456</v>
       </c>
       <c r="H3" t="n">
-        <v>54.91497810006173</v>
+        <v>54.91497810006169</v>
       </c>
       <c r="I3" t="n">
-        <v>34.1663867203019</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="J3" t="n">
-        <v>34.1663867203019</v>
+        <v>226.9792442829351</v>
       </c>
       <c r="K3" t="n">
-        <v>456.9754223840379</v>
+        <v>226.9792442829351</v>
       </c>
       <c r="L3" t="n">
-        <v>512.8568000036394</v>
+        <v>226.9792442829351</v>
       </c>
       <c r="M3" t="n">
-        <v>935.6658356673754</v>
+        <v>226.9792442829351</v>
       </c>
       <c r="N3" t="n">
-        <v>935.6658356673754</v>
+        <v>483.2972806410085</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.474871331111</v>
+        <v>906.106316304744</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.474871331111</v>
+        <v>1328.91535196848</v>
       </c>
       <c r="Q3" t="n">
-        <v>1708.319336015095</v>
+        <v>1678.759816652463</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015095</v>
+        <v>1708.319336015093</v>
       </c>
       <c r="S3" t="n">
-        <v>1600.329326129404</v>
+        <v>1600.329326129402</v>
       </c>
       <c r="T3" t="n">
-        <v>1440.987462316412</v>
+        <v>1440.98746231641</v>
       </c>
       <c r="U3" t="n">
-        <v>1402.261371003371</v>
+        <v>1243.636651454629</v>
       </c>
       <c r="V3" t="n">
-        <v>1402.261371003371</v>
+        <v>1029.925124447662</v>
       </c>
       <c r="W3" t="n">
-        <v>1189.0282027397</v>
+        <v>816.6919561839912</v>
       </c>
       <c r="X3" t="n">
-        <v>1012.702220878593</v>
+        <v>640.3659743228841</v>
       </c>
       <c r="Y3" t="n">
-        <v>853.3002612424228</v>
+        <v>480.9640146867141</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>580.9408836834104</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="C4" t="n">
-        <v>580.9408836834104</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="D4" t="n">
-        <v>509.3157829359345</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="E4" t="n">
-        <v>348.404967804254</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="F4" t="n">
-        <v>183.7738419148453</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="G4" t="n">
-        <v>183.7738419148453</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="H4" t="n">
-        <v>34.1663867203019</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="I4" t="n">
-        <v>34.1663867203019</v>
+        <v>34.16638672030187</v>
       </c>
       <c r="J4" t="n">
-        <v>48.24893612551242</v>
+        <v>48.24893612551239</v>
       </c>
       <c r="K4" t="n">
         <v>202.8012638477504</v>
@@ -4527,13 +4527,13 @@
         <v>580.9408836834104</v>
       </c>
       <c r="W4" t="n">
-        <v>580.9408836834104</v>
+        <v>301.8712191922848</v>
       </c>
       <c r="X4" t="n">
-        <v>580.9408836834104</v>
+        <v>63.52735705196818</v>
       </c>
       <c r="Y4" t="n">
-        <v>580.9408836834104</v>
+        <v>34.16638672030187</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>484.2909016982387</v>
+        <v>80.25049765783463</v>
       </c>
       <c r="C5" t="n">
         <v>74.16631101150881</v>
@@ -4567,52 +4567,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>537.7254774811266</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
-        <v>537.7254774811266</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M5" t="n">
-        <v>1054.568412147452</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1730.766722221062</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V5" t="n">
-        <v>1380.929167557543</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W5" t="n">
-        <v>997.1688666927112</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X5" t="n">
-        <v>997.1688666927112</v>
+        <v>474.7460523270731</v>
       </c>
       <c r="Y5" t="n">
-        <v>894.5120813627282</v>
+        <v>474.7460523270731</v>
       </c>
     </row>
     <row r="6">
@@ -4625,40 +4625,40 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>158.3214934345131</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L6" t="n">
-        <v>158.3214934345131</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M6" t="n">
+        <v>234.5779431922353</v>
+      </c>
+      <c r="N6" t="n">
         <v>675.1644281008383</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1192.007362767164</v>
       </c>
       <c r="O6" t="n">
         <v>1192.007362767164</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>278.4281042659014</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="C7" t="n">
-        <v>278.4281042659014</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="D7" t="n">
-        <v>278.4281042659014</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="E7" t="n">
-        <v>206.3962115190108</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4752,25 +4752,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1485.891263925851</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1203.093116471976</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>929.2073714114977</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="W7" t="n">
-        <v>929.2073714114977</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="X7" t="n">
-        <v>690.8635092711811</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="Y7" t="n">
-        <v>466.1278106599458</v>
+        <v>777.1526093285881</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>888.3313057386429</v>
+        <v>919.6088695046626</v>
       </c>
       <c r="C8" t="n">
-        <v>882.247119092317</v>
+        <v>509.4842788179327</v>
       </c>
       <c r="D8" t="n">
-        <v>881.8235932257816</v>
+        <v>160.0945478279002</v>
       </c>
       <c r="E8" t="n">
-        <v>467.4833777426783</v>
+        <v>149.794736385201</v>
       </c>
       <c r="F8" t="n">
-        <v>46.45296569636579</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>216.5644706858345</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>216.5644706858345</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
-        <v>216.5644706858345</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M8" t="n">
-        <v>216.5644706858345</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N8" t="n">
-        <v>733.4074053521598</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="O8" t="n">
-        <v>1250.250340018485</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P8" t="n">
         <v>1767.09327468481</v>
@@ -4837,19 +4837,19 @@
         <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>1473.706230480572</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>1089.945929615741</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X8" t="n">
-        <v>894.5120813627283</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y8" t="n">
-        <v>894.5120813627283</v>
+        <v>1329.830049169152</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>52.35970185319792</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>508.1659581184966</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L9" t="n">
-        <v>1025.008892784822</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.008892784822</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N9" t="n">
-        <v>1025.008892784822</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O9" t="n">
-        <v>1541.851827451147</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P9" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>409.1714896368677</v>
+        <v>981.4914807361952</v>
       </c>
       <c r="C10" t="n">
-        <v>238.0781171985842</v>
+        <v>810.3981082979117</v>
       </c>
       <c r="D10" t="n">
-        <v>209.0154767040586</v>
+        <v>650.9034636208218</v>
       </c>
       <c r="E10" t="n">
-        <v>209.0154767040586</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F10" t="n">
-        <v>209.0154767040586</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>821.6068946421474</v>
+        <v>1393.926885741475</v>
       </c>
       <c r="Y10" t="n">
-        <v>596.8711960309121</v>
+        <v>1169.19118713024</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G11" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H11" t="n">
         <v>149.7985495388648</v>
@@ -5068,25 +5068,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T11" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U11" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V11" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="12">
@@ -5123,22 +5123,22 @@
         <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>705.4904009953962</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M12" t="n">
-        <v>1548.467481689963</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N12" t="n">
-        <v>1548.467481689963</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O12" t="n">
-        <v>1548.467481689963</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
         <v>2110.173374178493</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>479.54194401308</v>
+        <v>723.0747234921112</v>
       </c>
       <c r="C13" t="n">
-        <v>434.4375921661941</v>
+        <v>581.7782618885126</v>
       </c>
       <c r="D13" t="n">
-        <v>434.4375921661941</v>
+        <v>452.0805280461074</v>
       </c>
       <c r="E13" t="n">
-        <v>434.4375921661941</v>
+        <v>452.0805280461074</v>
       </c>
       <c r="F13" t="n">
-        <v>299.6033771114703</v>
+        <v>317.2463129913835</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114703</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H13" t="n">
         <v>179.7928327516118</v>
@@ -5199,7 +5199,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
         <v>320.2864794362206</v>
@@ -5208,13 +5208,13 @@
         <v>609.3875320253558</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P13" t="n">
         <v>1761.542230672484</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U13" t="n">
-        <v>1181.450483200946</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V13" t="n">
-        <v>937.3616489751524</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W13" t="n">
-        <v>688.0888953187117</v>
+        <v>880.9775190514707</v>
       </c>
       <c r="X13" t="n">
-        <v>479.54194401308</v>
+        <v>880.9775190514707</v>
       </c>
       <c r="Y13" t="n">
-        <v>479.54194401308</v>
+        <v>880.9775190514707</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.8415093489459</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G14" t="n">
-        <v>430.910136076463</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H14" t="n">
-        <v>149.7985495388659</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I14" t="n">
         <v>93.2436976906228</v>
@@ -5281,7 +5281,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L14" t="n">
         <v>1598.180070079655</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T14" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U14" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V14" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y14" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="15">
@@ -5360,10 +5360,10 @@
         <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>355.6459363114127</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>355.6459363114127</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M15" t="n">
         <v>1198.623017005979</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>375.9731143336107</v>
+        <v>818.7292192987043</v>
       </c>
       <c r="C16" t="n">
-        <v>375.9731143336107</v>
+        <v>746.1535754843776</v>
       </c>
       <c r="D16" t="n">
-        <v>375.9731143336107</v>
+        <v>616.4558416419725</v>
       </c>
       <c r="E16" t="n">
-        <v>375.9731143336107</v>
+        <v>485.3419373449769</v>
       </c>
       <c r="F16" t="n">
-        <v>299.6033771114703</v>
+        <v>350.507722290253</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114703</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H16" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
         <v>320.2864794362206</v>
@@ -5445,13 +5445,13 @@
         <v>609.3875320253558</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N16" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O16" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P16" t="n">
         <v>1761.542230672484</v>
@@ -5463,25 +5463,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S16" t="n">
-        <v>1644.20354800875</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T16" t="n">
-        <v>1434.451719820137</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U16" t="n">
-        <v>1181.450483200946</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="V16" t="n">
-        <v>937.3616489751524</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="W16" t="n">
-        <v>937.3616489751524</v>
+        <v>1185.178966163696</v>
       </c>
       <c r="X16" t="n">
-        <v>728.8146976695207</v>
+        <v>976.6320148580638</v>
       </c>
       <c r="Y16" t="n">
-        <v>533.8759098929703</v>
+        <v>976.6320148580638</v>
       </c>
     </row>
     <row r="17">
@@ -5503,10 +5503,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489449</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H17" t="n">
         <v>149.7985495388648</v>
@@ -5551,7 +5551,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V17" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W17" t="n">
         <v>3463.023532176683</v>
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>741.8628115185547</v>
+        <v>212.9817385874103</v>
       </c>
       <c r="L18" t="n">
-        <v>1402.950983437843</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="M18" t="n">
-        <v>2110.173374178493</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="N18" t="n">
-        <v>2110.173374178493</v>
+        <v>874.0699105066985</v>
       </c>
       <c r="O18" t="n">
-        <v>2110.173374178493</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>321.6391484537204</v>
+        <v>833.5422597107668</v>
       </c>
       <c r="C19" t="n">
-        <v>321.6391484537204</v>
+        <v>692.2457981071682</v>
       </c>
       <c r="D19" t="n">
-        <v>224.3576019876185</v>
+        <v>562.5480642647631</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>431.4341599677674</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>296.5999449130435</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>159.1464646732718</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5673,7 +5673,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K19" t="n">
         <v>320.2864794362206</v>
@@ -5682,13 +5682,13 @@
         <v>609.3875320253558</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N19" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O19" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P19" t="n">
         <v>1761.542230672484</v>
@@ -5700,25 +5700,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.20354800875</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T19" t="n">
-        <v>1434.451719820137</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.450483200946</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="V19" t="n">
-        <v>937.3616489751524</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="W19" t="n">
-        <v>688.0888953187117</v>
+        <v>1394.930794352309</v>
       </c>
       <c r="X19" t="n">
-        <v>479.54194401308</v>
+        <v>1186.383843046677</v>
       </c>
       <c r="Y19" t="n">
-        <v>479.54194401308</v>
+        <v>991.4450552701263</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D20" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G20" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>213.3947382540484</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.371818948615</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.371818948615</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>365.6540635912171</v>
+        <v>182.1761681670851</v>
       </c>
       <c r="C22" t="n">
-        <v>224.3576019876185</v>
+        <v>182.1761681670851</v>
       </c>
       <c r="D22" t="n">
-        <v>224.3576019876185</v>
+        <v>182.1761681670851</v>
       </c>
       <c r="E22" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="F22" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K22" t="n">
         <v>320.2864794362206</v>
@@ -5919,13 +5919,13 @@
         <v>609.3875320253558</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N22" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O22" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P22" t="n">
         <v>1761.542230672484</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T22" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U22" t="n">
-        <v>1181.450483200946</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V22" t="n">
-        <v>937.3616489751524</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W22" t="n">
-        <v>688.0888953187117</v>
+        <v>743.5647028086267</v>
       </c>
       <c r="X22" t="n">
-        <v>688.0888953187117</v>
+        <v>535.017751502995</v>
       </c>
       <c r="Y22" t="n">
-        <v>493.1501075421613</v>
+        <v>340.0789637264446</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D23" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E23" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489448</v>
       </c>
       <c r="G23" t="n">
-        <v>430.910136076463</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -5989,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6025,7 +6025,7 @@
         <v>4137.027566035665</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W23" t="n">
         <v>3463.023532176684</v>
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M24" t="n">
-        <v>844.5103911440685</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N24" t="n">
-        <v>844.5103911440685</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>1548.467481689963</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>321.0892943552104</v>
+        <v>897.8407235073238</v>
       </c>
       <c r="C25" t="n">
-        <v>179.7928327516118</v>
+        <v>832.7027105453673</v>
       </c>
       <c r="D25" t="n">
-        <v>179.7928327516118</v>
+        <v>703.004976702962</v>
       </c>
       <c r="E25" t="n">
-        <v>179.7928327516118</v>
+        <v>571.8910724059663</v>
       </c>
       <c r="F25" t="n">
-        <v>179.7928327516118</v>
+        <v>437.0568573512423</v>
       </c>
       <c r="G25" t="n">
-        <v>179.7928327516118</v>
+        <v>299.6033771114705</v>
       </c>
       <c r="H25" t="n">
-        <v>179.7928327516118</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049078</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N25" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O25" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P25" t="n">
         <v>1761.542230672484</v>
@@ -6174,25 +6174,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.20354800875</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T25" t="n">
-        <v>1434.451719820137</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="U25" t="n">
-        <v>1181.450483200946</v>
+        <v>1391.202311389558</v>
       </c>
       <c r="V25" t="n">
-        <v>937.3616489751524</v>
+        <v>1147.113477163765</v>
       </c>
       <c r="W25" t="n">
-        <v>688.0888953187117</v>
+        <v>897.8407235073238</v>
       </c>
       <c r="X25" t="n">
-        <v>673.9308776911204</v>
+        <v>897.8407235073238</v>
       </c>
       <c r="Y25" t="n">
-        <v>478.99208991457</v>
+        <v>897.8407235073238</v>
       </c>
     </row>
     <row r="26">
@@ -6205,13 +6205,13 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D26" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
         <v>809.8415093489451</v>
@@ -6265,13 +6265,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="N27" t="n">
-        <v>936.2207783851894</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="O27" t="n">
-        <v>1640.177868931084</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="P27" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q27" t="n">
         <v>2110.173374178493</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>365.6540635912172</v>
+        <v>440.6044708910129</v>
       </c>
       <c r="C28" t="n">
-        <v>224.3576019876185</v>
+        <v>440.6044708910129</v>
       </c>
       <c r="D28" t="n">
-        <v>224.3576019876185</v>
+        <v>310.9067370486076</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6408,28 +6408,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.203548008749</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T28" t="n">
-        <v>1434.451719820136</v>
+        <v>1646.522384595456</v>
       </c>
       <c r="U28" t="n">
-        <v>1181.450483200945</v>
+        <v>1393.521147976265</v>
       </c>
       <c r="V28" t="n">
-        <v>937.3616489751514</v>
+        <v>1149.432313750472</v>
       </c>
       <c r="W28" t="n">
-        <v>769.1398026733996</v>
+        <v>900.159560094031</v>
       </c>
       <c r="X28" t="n">
-        <v>560.5928513677677</v>
+        <v>691.6126087883991</v>
       </c>
       <c r="Y28" t="n">
-        <v>365.6540635912172</v>
+        <v>496.6738210118486</v>
       </c>
     </row>
     <row r="29">
@@ -6451,22 +6451,22 @@
         <v>1201.075010560572</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489451</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764621</v>
+        <v>430.9101360764613</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388641</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6478,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6493,10 +6493,10 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V29" t="n">
         <v>3816.98692220683</v>
@@ -6545,16 +6545,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>324.9649248943615</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>324.9649248943615</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M30" t="n">
-        <v>324.9649248943615</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="N30" t="n">
-        <v>1198.623017005979</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="O30" t="n">
         <v>1198.623017005979</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>284.6031562365282</v>
+        <v>283.2952179625735</v>
       </c>
       <c r="C31" t="n">
-        <v>143.3066946329295</v>
+        <v>283.2952179625735</v>
       </c>
       <c r="D31" t="n">
-        <v>143.3066946329295</v>
+        <v>283.2952179625735</v>
       </c>
       <c r="E31" t="n">
-        <v>143.3066946329295</v>
+        <v>283.2952179625735</v>
       </c>
       <c r="F31" t="n">
-        <v>143.3066946329295</v>
+        <v>283.2952179625735</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>283.2952179625735</v>
       </c>
       <c r="H31" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6648,25 +6648,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.203548008749</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.451719820136</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U31" t="n">
-        <v>1181.450483200945</v>
+        <v>1338.04534048635</v>
       </c>
       <c r="V31" t="n">
-        <v>937.3616489751514</v>
+        <v>1093.956506260556</v>
       </c>
       <c r="W31" t="n">
-        <v>688.0888953187106</v>
+        <v>844.6837526041155</v>
       </c>
       <c r="X31" t="n">
-        <v>479.5419440130787</v>
+        <v>636.1368012984836</v>
       </c>
       <c r="Y31" t="n">
-        <v>284.6031562365282</v>
+        <v>441.1980135219331</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1960.285334281245</v>
       </c>
       <c r="D32" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E32" t="n">
         <v>1201.075010560572</v>
       </c>
       <c r="F32" t="n">
-        <v>809.8415093489446</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G32" t="n">
         <v>430.9101360764616</v>
@@ -6736,16 +6736,16 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V32" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176682</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X32" t="n">
         <v>3092.17704518032</v>
       </c>
       <c r="Y32" t="n">
-        <v>2721.037282963094</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>917.3518287999427</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M33" t="n">
-        <v>1760.328909494509</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N33" t="n">
-        <v>1760.328909494509</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O33" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P33" t="n">
         <v>1760.328909494509</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>126.7003606771693</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="C34" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="D34" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="E34" t="n">
-        <v>93.2436976906228</v>
+        <v>182.1761681670848</v>
       </c>
       <c r="F34" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G34" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6882,28 +6882,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R34" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S34" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T34" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U34" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.926290690861</v>
       </c>
       <c r="V34" t="n">
-        <v>937.361648975152</v>
+        <v>992.8374564650675</v>
       </c>
       <c r="W34" t="n">
-        <v>688.0888953187111</v>
+        <v>743.5647028086266</v>
       </c>
       <c r="X34" t="n">
-        <v>479.5419440130794</v>
+        <v>535.0177515029949</v>
       </c>
       <c r="Y34" t="n">
-        <v>284.6031562365289</v>
+        <v>340.0789637264444</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C35" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D35" t="n">
         <v>1585.618315208991</v>
@@ -6925,10 +6925,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489449</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G35" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H35" t="n">
         <v>149.7985495388648</v>
@@ -6937,10 +6937,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6952,7 +6952,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O35" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P35" t="n">
         <v>4300.467232046283</v>
@@ -6973,7 +6973,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W35" t="n">
         <v>3463.023532176683</v>
@@ -7016,19 +7016,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>494.6659264600851</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>494.6659264600851</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>494.6659264600851</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
         <v>1198.623017005979</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>284.6031562365296</v>
+        <v>548.5228536411028</v>
       </c>
       <c r="C37" t="n">
-        <v>284.6031562365296</v>
+        <v>407.2263920375041</v>
       </c>
       <c r="D37" t="n">
-        <v>154.9054223941245</v>
+        <v>407.2263920375041</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>407.2263920375041</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>407.2263920375041</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>269.7729117977323</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K37" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L37" t="n">
         <v>609.3875320253558</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N37" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O37" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P37" t="n">
         <v>1761.542230672484</v>
@@ -7119,28 +7119,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R37" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S37" t="n">
-        <v>1644.20354800875</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="T37" t="n">
-        <v>1434.451719820137</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="U37" t="n">
-        <v>1181.450483200946</v>
+        <v>1603.272976164879</v>
       </c>
       <c r="V37" t="n">
-        <v>937.3616489751524</v>
+        <v>1359.184141939085</v>
       </c>
       <c r="W37" t="n">
-        <v>688.0888953187117</v>
+        <v>1109.911388282645</v>
       </c>
       <c r="X37" t="n">
-        <v>479.54194401308</v>
+        <v>901.3644369770128</v>
       </c>
       <c r="Y37" t="n">
-        <v>284.6031562365296</v>
+        <v>706.4256492004623</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133289</v>
       </c>
       <c r="C38" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281244</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.61831520899</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560571</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489448</v>
+        <v>809.8415093489439</v>
       </c>
       <c r="G38" t="n">
-        <v>430.9101360764619</v>
+        <v>430.9101360764612</v>
       </c>
       <c r="H38" t="n">
         <v>149.7985495388648</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4556.700720159925</v>
+        <v>4556.700720159924</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035663</v>
       </c>
       <c r="V38" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206828</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176681</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.177045180319</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963094</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>355.6459363114127</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.623017005979</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N39" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O39" t="n">
-        <v>1198.623017005979</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>369.3743743489453</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="C40" t="n">
-        <v>228.0779127453467</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="D40" t="n">
-        <v>228.0779127453467</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="E40" t="n">
-        <v>228.0779127453467</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>126.7003606771702</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7338,10 +7338,10 @@
         <v>320.2864794362206</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M40" t="n">
-        <v>927.8555407749237</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N40" t="n">
         <v>1237.898275478249</v>
@@ -7365,19 +7365,19 @@
         <v>1434.451719820137</v>
       </c>
       <c r="U40" t="n">
-        <v>1215.577545567089</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V40" t="n">
-        <v>971.4887113412959</v>
+        <v>937.3616489751525</v>
       </c>
       <c r="W40" t="n">
-        <v>722.2159576848552</v>
+        <v>688.0888953187118</v>
       </c>
       <c r="X40" t="n">
-        <v>722.2159576848552</v>
+        <v>479.5419440130801</v>
       </c>
       <c r="Y40" t="n">
-        <v>527.2771699083048</v>
+        <v>284.6031562365297</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2549.191389976084</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289354</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899311</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529991</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458314</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735495</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7414,7 +7414,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
         <v>1598.180070079655</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4351.007589961323</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U41" t="n">
-        <v>4093.947098220834</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V41" t="n">
-        <v>3744.109543557314</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W41" t="n">
-        <v>3360.349242692483</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X41" t="n">
-        <v>3360.349242692483</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y41" t="n">
-        <v>2959.412569640573</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>182.7137268369972</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M42" t="n">
-        <v>182.7137268369972</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N42" t="n">
-        <v>1056.371818948615</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O42" t="n">
-        <v>1760.328909494509</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P42" t="n">
         <v>1760.328909494509</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4063.35771140577</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>3892.264338967486</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>3732.769694290396</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4475.79311641105</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>4475.79311641105</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>4475.79311641105</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>4475.79311641105</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>4475.79311641105</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>4475.79311641105</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y43" t="n">
-        <v>4251.057417799814</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2134.851174492981</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C44" t="n">
-        <v>1724.726583806251</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.262653899311</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899311</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529991</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458314</v>
+        <v>444.4869682774688</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735495</v>
+        <v>133.5784709051868</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
@@ -7651,7 +7651,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7687,13 +7687,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>3314.038978003259</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
         <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120302</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="45">
@@ -7736,19 +7736,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>93.2436976906228</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N45" t="n">
-        <v>524.2254458227151</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O45" t="n">
-        <v>1228.182536368609</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="P45" t="n">
-        <v>1789.888428857139</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q45" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3416.38242488042</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="C46" t="n">
-        <v>3416.38242488042</v>
+        <v>742.8105672759259</v>
       </c>
       <c r="D46" t="n">
-        <v>3416.38242488042</v>
+        <v>583.3159225988359</v>
       </c>
       <c r="E46" t="n">
-        <v>3416.38242488042</v>
+        <v>523.8283246702488</v>
       </c>
       <c r="F46" t="n">
-        <v>3416.38242488042</v>
+        <v>359.19719878084</v>
       </c>
       <c r="G46" t="n">
-        <v>3249.132033805963</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H46" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>4576.912166206539</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T46" t="n">
-        <v>4337.363427183242</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U46" t="n">
-        <v>4054.565279729366</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V46" t="n">
-        <v>4054.565279729366</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="W46" t="n">
-        <v>4054.565279729366</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="X46" t="n">
-        <v>3828.8178298857</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="Y46" t="n">
-        <v>3604.082131274464</v>
+        <v>913.9039397142094</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>133.5891066618314</v>
+        <v>516.2162236769904</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>522.5652320666181</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>520.3700584608188</v>
       </c>
       <c r="N2" t="n">
-        <v>519.992124760393</v>
+        <v>205.0170636316349</v>
       </c>
       <c r="O2" t="n">
-        <v>520.2696096295568</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>520.7291972846579</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
         <v>128.2784515920617</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9056167883891</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5603597902445</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>484.6441177421912</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>312.1005008261474</v>
       </c>
       <c r="O3" t="n">
-        <v>484.8313130037737</v>
+        <v>484.8313130037733</v>
       </c>
       <c r="P3" t="n">
-        <v>54.25963500280375</v>
+        <v>481.339469006577</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>590.1064824525349</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
@@ -8227,19 +8227,19 @@
         <v>615.3537948270711</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>293.2845869185513</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,22 +8294,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>173.5595280421012</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>498.2302468367834</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>249.8886267436438</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>535.1658287548266</v>
       </c>
       <c r="N8" t="n">
         <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>414.4388617681339</v>
@@ -8531,28 +8531,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>62.07087134908675</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>501.1513772538824</v>
       </c>
       <c r="M9" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>88.85829947169823</v>
@@ -8771,13 +8771,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>479.785075065536</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
         <v>53.19339339374999</v>
@@ -8789,7 +8789,7 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8929,7 +8929,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -8950,7 +8950,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,13 +9008,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>126.1180868837635</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
@@ -9184,10 +9184,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>176.7732988419765</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>771.9303349915991</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>177.4792112486527</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M24" t="n">
-        <v>148.6536994294856</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,10 +9953,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
         <v>56.11452381084905</v>
@@ -9968,13 +9968,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>529.0025695961465</v>
+        <v>231.5212686203674</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>88.85829947169823</v>
@@ -10193,7 +10193,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>289.8876284449575</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>56.11452381084905</v>
@@ -10202,10 +10202,10 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>713.8858861212706</v>
       </c>
       <c r="P30" t="n">
         <v>621.6393243851574</v>
@@ -10427,25 +10427,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>428.1366196128907</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
@@ -10597,7 +10597,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N35" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O35" t="n">
         <v>743.321953824879</v>
@@ -10664,13 +10664,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>461.5915225678817</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
@@ -10679,7 +10679,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
@@ -10843,7 +10843,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10904,28 +10904,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>126.4068279099972</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>587.0713442545288</v>
       </c>
       <c r="N39" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
         <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11080,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11138,25 +11138,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>146.4882906253687</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>410.0708656603775</v>
@@ -11299,7 +11299,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>632.7318453389136</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L44" t="n">
         <v>815.2746908024792</v>
@@ -11311,7 +11311,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>743.3219538248791</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
         <v>628.1510783507341</v>
@@ -11384,22 +11384,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>488.5284925170755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>621.6393243851574</v>
+        <v>357.5874164994557</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>95.23018865914567</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>129.8027652540257</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501634</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>136.0386880804156</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y13" t="n">
         <v>192.9893998987849</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875626</v>
+        <v>68.03360961137923</v>
       </c>
       <c r="D16" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>57.87983305425756</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198763</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>32.09202550254015</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>53.36869960343738</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037907</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.10268409233116</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D22" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>127.4432631927071</v>
       </c>
       <c r="F22" t="n">
         <v>133.4858729041766</v>
@@ -24147,7 +24147,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501634</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>75.3968641552258</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041766</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>192.44504434126</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="26">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>156.323767603766</v>
+        <v>100.8151109841386</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>118.61243891626</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037917</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.9210494150164</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>80.24039828114212</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
         <v>128.4007565039811</v>
@@ -24852,13 +24852,13 @@
         <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
-        <v>86.51657846449045</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H31" t="n">
-        <v>118.61243891626</v>
+        <v>16.1450775574079</v>
       </c>
       <c r="I31" t="n">
-        <v>85.68364371037917</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>106.7614006308816</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D34" t="n">
         <v>128.4007565039811</v>
@@ -25086,7 +25086,7 @@
         <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>131.1263708428584</v>
       </c>
       <c r="G34" t="n">
         <v>136.078945437374</v>
@@ -25095,7 +25095,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.3237676037659</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>139.8834969875626</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E37" t="n">
-        <v>68.75765779755906</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F37" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G37" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>118.6124389162599</v>
+        <v>29.53216066060061</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037907</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25551,16 +25551,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.8834969875626</v>
       </c>
       <c r="D40" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E40" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G40" t="n">
         <v>136.078945437374</v>
@@ -25569,7 +25569,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037907</v>
+        <v>52.56154735369716</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>33.78579174248216</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>45.84716204233163</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>396.6369638527369</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>157.1745055375999</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,22 +25836,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>8.893130557884376</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>32.28731256679652</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282721</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>45.5568195736792</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>100.4089850310625</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>12.47044817368422</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>608208.9225438415</v>
+        <v>608208.9225438414</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>608208.9225438415</v>
+        <v>608208.9225438414</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>608208.9225438415</v>
+        <v>608208.9225438414</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>608208.9225438415</v>
+        <v>608208.9225438414</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>608208.9225438414</v>
+        <v>608208.9225438415</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>608208.9225438414</v>
+        <v>608208.9225438415</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>566528.5887045853</v>
+        <v>566528.5887045851</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>618953.0935233365</v>
+        <v>618953.0935233366</v>
       </c>
       <c r="C2" t="n">
         <v>618953.0935233365</v>
       </c>
       <c r="D2" t="n">
-        <v>618953.0935233367</v>
+        <v>618953.0935233362</v>
       </c>
       <c r="E2" t="n">
         <v>599827.8647507951</v>
@@ -26328,16 +26328,16 @@
         <v>599827.8647507952</v>
       </c>
       <c r="G2" t="n">
+        <v>599827.8647507948</v>
+      </c>
+      <c r="H2" t="n">
         <v>599827.8647507949</v>
       </c>
-      <c r="H2" t="n">
-        <v>599827.8647507947</v>
-      </c>
       <c r="I2" t="n">
-        <v>599827.8647507947</v>
+        <v>599827.8647507952</v>
       </c>
       <c r="J2" t="n">
-        <v>599827.8647507949</v>
+        <v>599827.8647507951</v>
       </c>
       <c r="K2" t="n">
         <v>599827.8647507949</v>
@@ -26346,16 +26346,16 @@
         <v>599827.8647507949</v>
       </c>
       <c r="M2" t="n">
-        <v>599827.8647507948</v>
+        <v>599827.8647507947</v>
       </c>
       <c r="N2" t="n">
-        <v>599827.8647507947</v>
+        <v>599827.8647507949</v>
       </c>
       <c r="O2" t="n">
         <v>550332.4683166783</v>
       </c>
       <c r="P2" t="n">
-        <v>550332.4683166783</v>
+        <v>550332.4683166785</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108467</v>
+        <v>143124.2752108465</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.46086668813</v>
+        <v>30686.46086668828</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>135342.0294691537</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110951</v>
+        <v>24445.77426110962</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006828</v>
+        <v>160358.4505006827</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>240285.7433202984</v>
+        <v>240285.7433202985</v>
       </c>
       <c r="C4" t="n">
         <v>222716.4087914901</v>
@@ -26438,7 +26438,7 @@
         <v>133638.8779954489</v>
       </c>
       <c r="I4" t="n">
-        <v>133638.8779954489</v>
+        <v>133638.8779954488</v>
       </c>
       <c r="J4" t="n">
         <v>133638.8779954488</v>
@@ -26456,10 +26456,10 @@
         <v>133638.8779954489</v>
       </c>
       <c r="O4" t="n">
-        <v>103828.8485785801</v>
+        <v>103828.84857858</v>
       </c>
       <c r="P4" t="n">
-        <v>103828.8485785801</v>
+        <v>103828.84857858</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742944</v>
+        <v>59594.05390742941</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26478,19 +26478,19 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="F5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="G5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="H5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="I5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
         <v>73345.15677686482</v>
@@ -26502,16 +26502,16 @@
         <v>73345.15677686482</v>
       </c>
       <c r="M5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="N5" t="n">
         <v>73345.15677686484</v>
       </c>
       <c r="O5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>175949.0210847619</v>
+        <v>175949.0210847621</v>
       </c>
       <c r="C6" t="n">
-        <v>300181.1587866607</v>
+        <v>300181.1587866605</v>
       </c>
       <c r="D6" t="n">
-        <v>330867.619653349</v>
+        <v>330867.6196533486</v>
       </c>
       <c r="E6" t="n">
-        <v>177114.9136979677</v>
+        <v>177064.5841485663</v>
       </c>
       <c r="F6" t="n">
-        <v>392843.8299784814</v>
+        <v>392793.50042908</v>
       </c>
       <c r="G6" t="n">
-        <v>392843.8299784812</v>
+        <v>392793.5004290797</v>
       </c>
       <c r="H6" t="n">
-        <v>392843.829978481</v>
+        <v>392793.5004290798</v>
       </c>
       <c r="I6" t="n">
-        <v>392843.829978481</v>
+        <v>392793.5004290802</v>
       </c>
       <c r="J6" t="n">
-        <v>257501.8005093276</v>
+        <v>257451.4709599263</v>
       </c>
       <c r="K6" t="n">
-        <v>368398.0557173718</v>
+        <v>368347.7261679702</v>
       </c>
       <c r="L6" t="n">
-        <v>392843.8299784812</v>
+        <v>392793.5004290798</v>
       </c>
       <c r="M6" t="n">
-        <v>232485.3794777983</v>
+        <v>232435.0499283969</v>
       </c>
       <c r="N6" t="n">
-        <v>392843.829978481</v>
+        <v>392793.5004290798</v>
       </c>
       <c r="O6" t="n">
-        <v>375638.4094932249</v>
+        <v>375457.8289005759</v>
       </c>
       <c r="P6" t="n">
-        <v>375638.4094932249</v>
+        <v>375457.8289005762</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="J2" t="n">
         <v>29.49894172633794</v>
@@ -26718,10 +26718,10 @@
         <v>29.49894172633799</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037737</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037737</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625183</v>
+        <v>94.98373636625229</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037737</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625185</v>
+        <v>94.98373636625229</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037737</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625183</v>
+        <v>94.98373636625229</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>61.28241200964641</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.0481148261998</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.9416895012111581</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27514,10 +27514,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>157.0384723532531</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>211.5744117368965</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27542,19 +27542,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>86.99084849031792</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
         <v>115.1825854367171</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>193.4209809967733</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>15.56836874529853</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>295.2970888447077</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
         <v>169.3824387139007</v>
@@ -27782,19 +27782,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>87.99013316094199</v>
+        <v>23.12472639190918</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>54.52345692773787</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
+      <c r="F8" t="n">
         <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>400</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,19 +27909,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>203.1574540822548</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,13 +28016,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>129.1276841407388</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -28076,7 +28076,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>60.49569797502627</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C20" t="n">
-        <v>29.4989417263368</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633719</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633801</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633697</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633792</v>
       </c>
     </row>
     <row r="26">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633674</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633803</v>
+        <v>29.49894172633804</v>
       </c>
     </row>
     <row r="41">
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>44.45271698861424</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="N2" t="n">
-        <v>427.0798340037737</v>
+        <v>112.1047728750156</v>
       </c>
       <c r="O2" t="n">
-        <v>427.0798340037737</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>427.0798340037737</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>40.9663087773382</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>427.0798340037737</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>56.44583597939545</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>427.0798340037737</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>258.9071074323974</v>
       </c>
       <c r="O3" t="n">
-        <v>427.0798340037737</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>427.0798340037733</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,19 +34947,19 @@
         <v>522.0635703700256</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>117.7337452574859</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>445.0368534430334</v>
+      </c>
+      <c r="O6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="N6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>176.5650354103358</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="N8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>324.4050573689818</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10.70163254908674</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>445.0368534430334</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>29.85810036629282</v>
@@ -35491,13 +35491,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>423.670551254687</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K13" t="n">
         <v>185.6124040720329</v>
@@ -35576,19 +35576,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P13" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35670,7 +35670,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>70.29230409914815</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
@@ -35813,19 +35813,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M16" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P16" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35904,10 +35904,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>120.9475160573611</v>
       </c>
       <c r="L18" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>714.3660512531817</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
@@ -36050,19 +36050,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M19" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N19" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P19" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>121.3646874378037</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533854</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
@@ -36287,19 +36287,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M22" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N22" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P22" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M24" t="n">
-        <v>91.08941569106823</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533845</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L25" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M25" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N25" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P25" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978332</v>
+        <v>95.6888708197832</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36688,13 +36688,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>474.7429345933427</v>
+        <v>177.2616336175636</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>29.85810036629282</v>
@@ -36773,7 +36773,7 @@
         <v>237.2519116754413</v>
       </c>
       <c r="Q28" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978323</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>234.0618456603421</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,10 +36922,10 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="P30" t="n">
         <v>567.3796893823536</v>
@@ -37010,7 +37010,7 @@
         <v>237.2519116754413</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978322</v>
+        <v>95.68887081978323</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>372.0220958020416</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
@@ -37317,7 +37317,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N35" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O35" t="n">
         <v>650.1321781990958</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>405.4769987570326</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,7 +37399,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533851</v>
       </c>
       <c r="K37" t="n">
         <v>185.6124040720329</v>
@@ -37472,19 +37472,19 @@
         <v>292.0212652415507</v>
       </c>
       <c r="M37" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N37" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O37" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995442</v>
       </c>
       <c r="P37" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978332</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37624,28 +37624,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>70.29230409914815</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>529.5070605161113</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533855</v>
+        <v>43.72373910533857</v>
       </c>
       <c r="K40" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L40" t="n">
         <v>292.0212652415507</v>
@@ -37782,7 +37782,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37800,7 +37800,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R41" t="n">
         <v>40.9663087773382</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>90.37376681451964</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
         <v>353.3782471555388</v>
@@ -38019,7 +38019,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>543.5954556656965</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L44" t="n">
         <v>719.7892927396343</v>
@@ -38031,7 +38031,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>650.132178199096</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
         <v>534.50171506985</v>
@@ -38104,22 +38104,22 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>435.3350991233255</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>567.3796893823536</v>
+        <v>303.327781496652</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
